--- a/output/META_SUMMARY.xlsx
+++ b/output/META_SUMMARY.xlsx
@@ -137,7 +137,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -181,7 +181,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,7 +489,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
